--- a/Metropolitan Roads/31659/ITP-151-STR-SSB-Shotcrete Rev 0.xlsx
+++ b/Metropolitan Roads/31659/ITP-151-STR-SSB-Shotcrete Rev 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\03-Station Street, Beaconsfield\01-ITPs\ITP-151-STR-SSB-Shotcrete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\31659\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6315305-EECD-4D83-9151-00883F31E2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6092755-3B64-4D9F-8647-FCA5DF44DB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="270" windowWidth="29070" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1573,6 +1573,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1632,48 +1674,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2075,8 +2075,8 @@
   </sheetPr>
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2100,71 +2100,71 @@
         <v>1</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="67" t="str">
+      <c r="C2" s="81" t="str">
         <f>"ITP-"&amp;C4&amp;"-"&amp;C3</f>
         <v>ITP-151-STR-Shotcrete-SSB</v>
       </c>
-      <c r="D2" s="68"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="82"/>
     </row>
     <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="82"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="67">
+      <c r="C5" s="81">
         <v>0</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="29"/>
-      <c r="C6" s="69">
+      <c r="C6" s="83">
         <v>45401</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="D6" s="84"/>
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="82"/>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="29"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="82"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
@@ -2180,8 +2180,8 @@
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2205,11 +2205,11 @@
       <c r="D12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="11" t="s">
         <v>12</v>
       </c>
@@ -2220,12 +2220,12 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="23" t="s">
         <v>13</v>
       </c>
@@ -2240,12 +2240,12 @@
     </row>
     <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="P14" s="1"/>
@@ -2254,15 +2254,15 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="96"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="P15" s="1"/>
@@ -2287,43 +2287,43 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="84" t="s">
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="84" t="s">
+      <c r="I17" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="86" t="s">
+      <c r="K17" s="74" t="s">
         <v>23</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2333,10 +2333,10 @@
       <c r="G18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="86"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="74"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
@@ -2344,18 +2344,18 @@
       <c r="A19" s="13">
         <v>1</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
@@ -2501,18 +2501,18 @@
       <c r="A24" s="13">
         <v>2</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
     </row>
     <row r="25" spans="1:19" ht="202.5" x14ac:dyDescent="0.2">
       <c r="A25" s="42">
@@ -2580,18 +2580,18 @@
       <c r="A27" s="49">
         <v>2</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:19" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
@@ -2690,18 +2690,18 @@
       <c r="A31" s="49">
         <v>3</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:19" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
@@ -2802,18 +2802,18 @@
       <c r="A35" s="49">
         <v>3</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:13" ht="345.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
@@ -2912,18 +2912,18 @@
       <c r="A39" s="49">
         <v>3</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="42" t="s">
@@ -2991,18 +2991,18 @@
       <c r="A42" s="49">
         <v>4</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
     </row>
     <row r="43" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="42">
@@ -3132,18 +3132,18 @@
       <c r="A47" s="49">
         <v>5</v>
       </c>
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="90"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" spans="1:13" ht="228.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
@@ -3211,18 +3211,18 @@
       <c r="A50" s="49">
         <v>5</v>
       </c>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
     </row>
     <row r="51" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
@@ -3321,18 +3321,18 @@
       <c r="A54" s="49">
         <v>5</v>
       </c>
-      <c r="B54" s="90" t="s">
+      <c r="B54" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="90"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
     </row>
     <row r="55" spans="1:14" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
@@ -3431,18 +3431,18 @@
       <c r="A58" s="49">
         <v>5</v>
       </c>
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="90"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
     </row>
     <row r="59" spans="1:14" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="42" t="s">
@@ -3478,18 +3478,18 @@
       <c r="A60" s="49">
         <v>5</v>
       </c>
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="90"/>
-      <c r="K60" s="90"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
     </row>
     <row r="61" spans="1:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="42" t="s">
@@ -3557,18 +3557,18 @@
       <c r="A63" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="90"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
     </row>
     <row r="64" spans="1:14" ht="303" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="42" t="s">
@@ -3605,18 +3605,18 @@
       <c r="A65" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
     </row>
     <row r="66" spans="1:11" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="42" t="s">
@@ -3684,18 +3684,18 @@
       <c r="A68" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="90"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="64"/>
     </row>
     <row r="69" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="42" t="s">
@@ -3805,75 +3805,51 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
-      <c r="B73" s="97" t="s">
+      <c r="B73" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="97"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="97"/>
-      <c r="J73" s="97"/>
-      <c r="K73" s="97"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
     </row>
     <row r="74" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
-      <c r="B74" s="94" t="s">
+      <c r="B74" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="95"/>
-      <c r="J74" s="95"/>
-      <c r="K74" s="96"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="70"/>
     </row>
     <row r="75" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17"/>
-      <c r="B75" s="91" t="s">
+      <c r="B75" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="92"/>
-      <c r="K75" s="93"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B68:K68"/>
-    <mergeCell ref="B75:K75"/>
-    <mergeCell ref="B74:K74"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="B65:K65"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="C2:D2"/>
@@ -3890,10 +3866,34 @@
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="B19:K19"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B68:K68"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="B74:K74"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="B65:K65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Arial,Regular"&amp;8Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3961,6 +3961,65 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A70E945F2728E4A865DDF9F320753FE" ma:contentTypeVersion="83" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="526eaf6633c300e3f197090e00c4b099">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2836469c-b43e-4aa1-9b97-2c3e7041e824" xmlns:ns3="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns4="8aefd74c-d14b-451e-bb38-cf3a729b3efa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff518e3a7c1b2aba83c707a810e8854b" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4368,65 +4427,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987A2FD4-2E0F-4E1B-822B-F2869A5BF147}">
   <ds:schemaRefs>
@@ -4441,6 +4441,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0DB2F9E-7CB5-4504-B535-7226C25FC34B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD00E386-0DD2-419B-8A74-02CB1A8C4632}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FA973DA-9861-4F7A-B95C-F960165EDD05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4459,20 +4475,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD00E386-0DD2-419B-8A74-02CB1A8C4632}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0DB2F9E-7CB5-4504-B535-7226C25FC34B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>